--- a/form_reporting_templates/interim/Form-3CE_interim.xlsx
+++ b/form_reporting_templates/interim/Form-3CE_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\R libs\workflow\forms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F01ED6A-C11D-4338-BD18-98AF6D2CEBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71975D6C-E5F6-4F9B-B0EC-10F3A1F14E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -111,12 +111,6 @@
     <t>Coverage value</t>
   </si>
   <si>
-    <t>IOTC form 3-CE | metadata</t>
-  </si>
-  <si>
-    <t>IOTC form 3-CE | data</t>
-  </si>
-  <si>
     <t>Grid</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Effort values</t>
   </si>
   <si>
-    <t>3-CE</t>
-  </si>
-  <si>
     <t>Type of data</t>
   </si>
   <si>
@@ -157,6 +148,15 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | data</t>
+  </si>
+  <si>
+    <t>IOTC Form 3CE | metadata</t>
+  </si>
+  <si>
+    <t>3CE</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -1257,14 +1257,14 @@
         <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1305,7 +1305,7 @@
       <c r="D8" s="67"/>
       <c r="E8" s="10"/>
       <c r="F8" s="67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="67"/>
       <c r="H8" s="11"/>
@@ -1326,12 +1326,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1348,7 +1348,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="10"/>
@@ -1421,12 +1421,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="10"/>
       <c r="F19" s="48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="11"/>
@@ -1485,7 +1485,7 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="10"/>
@@ -1533,7 +1533,7 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="10"/>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1628,7 +1628,7 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ydUHFEsblGyhIYwJGSZxxpcIHWFlrdkZWZrFjMlSR4PVRcyKSDu/phN7oHOa89Vi/d5Cqo0GGSpozhWvGMlAJg==" saltValue="GhHwBVyPmv2AMldO/jW7yw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="hWz54iSkK3nhEaO+BiIV3KbUmedrGiR4zT/7eV8qGR085HILQI8Y9RkNXNq2QNzSHeFRinGKDu2UP6UkYvaaZg==" saltValue="CI6ROPv5Lo2uIP+Zk63PFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -1912,17 +1912,17 @@
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="79"/>
       <c r="E4" s="74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="76"/>
       <c r="H4" s="80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
@@ -2029,7 +2029,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>11</v>
@@ -2645,7 +2645,7 @@
       <c r="G55" s="39"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="bckkvfW9iTFsi1hJ0wg25yopB5oWgHjC5kLXwzyQ7YISdf2ZMNiL0qjkwF4G2kHnXi0kuWy8AY6ngxihiEhrng==" saltValue="QUGg7d3rYwLKQGYmeMPRxg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="NqL6+1tCkfV99phClVkbQrE3BlQUo1cn3v9K6L+ygkBObNHRKzXaFequSc5Eag8bbA1uGnwru10JPeZOWkJZuA==" saltValue="rv582PEjN60Vdhef+MiiUA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="B2:DC3"/>
     <mergeCell ref="E4:G4"/>

--- a/form_reporting_templates/interim/Form-3CE_interim.xlsx
+++ b/form_reporting_templates/interim/Form-3CE_interim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\dev\git\BitBucket workspaces\IOTC-ws\Data dissemination\iotc-reference-forms\form_reporting_templates\interim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\echassot\Desktop\iotc-reference-forms\form_reporting_templates\interim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71975D6C-E5F6-4F9B-B0EC-10F3A1F14E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C111D96A-587A-4F96-872D-65D9EA3D464E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="JaUivJj1XpzVIsMUuIWG4pvRwNkhjECqAfRNMoS0pEzY8qCMrWJoKRkwK5J/dPq5W+eH0fv+0nU0ZPhh5rEo8w==" workbookSaltValue="WSrsrEWzygKOJ9WtcOLB6A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{742ED9EC-8AD9-42B2-9B99-191B35B67816}"/>
@@ -51,9 +51,6 @@
     <t>General information</t>
   </si>
   <si>
-    <t>Flag country</t>
-  </si>
-  <si>
     <t>Reporting year</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>3CE</t>
+  </si>
+  <si>
+    <t>Flag state</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1233,7 @@
     <row r="1" spans="2:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -1254,17 +1254,17 @@
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" s="8"/>
     </row>
@@ -1280,7 +1280,7 @@
     <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="9"/>
       <c r="C6" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
@@ -1305,7 +1305,7 @@
       <c r="D8" s="67"/>
       <c r="E8" s="10"/>
       <c r="F8" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="67"/>
       <c r="H8" s="11"/>
@@ -1326,12 +1326,12 @@
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="11"/>
@@ -1348,7 +1348,7 @@
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="10"/>
@@ -1359,7 +1359,7 @@
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="10"/>
@@ -1408,12 +1408,12 @@
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="41"/>
       <c r="E18" s="10"/>
       <c r="F18" s="47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="41"/>
       <c r="H18" s="11"/>
@@ -1421,12 +1421,12 @@
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="41"/>
       <c r="E19" s="10"/>
       <c r="F19" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" s="41"/>
       <c r="H19" s="11"/>
@@ -1434,7 +1434,7 @@
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="47" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D20" s="41"/>
       <c r="E20" s="10"/>
@@ -1463,7 +1463,7 @@
     <row r="23" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="10"/>
@@ -1477,7 +1477,7 @@
       <c r="D24" s="15"/>
       <c r="E24" s="10"/>
       <c r="F24" s="67" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G24" s="67"/>
       <c r="H24" s="11"/>
@@ -1485,12 +1485,12 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D25" s="41"/>
       <c r="E25" s="10"/>
       <c r="F25" s="47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="41"/>
       <c r="H25" s="11"/>
@@ -1501,7 +1501,7 @@
       <c r="D26" s="15"/>
       <c r="E26" s="10"/>
       <c r="F26" s="43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="41"/>
       <c r="H26" s="11"/>
@@ -1509,12 +1509,12 @@
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="9"/>
       <c r="C27" s="47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="41"/>
       <c r="E27" s="10"/>
       <c r="F27" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G27" s="41"/>
       <c r="H27" s="11"/>
@@ -1522,7 +1522,7 @@
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="9"/>
       <c r="C28" s="47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="41"/>
       <c r="E28" s="10"/>
@@ -1533,12 +1533,12 @@
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="9"/>
       <c r="C29" s="47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="41"/>
       <c r="E29" s="10"/>
       <c r="F29" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="41"/>
       <c r="H29" s="11"/>
@@ -1546,7 +1546,7 @@
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D30" s="41"/>
       <c r="E30" s="10"/>
@@ -1557,11 +1557,11 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="42"/>
       <c r="E31" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -1588,7 +1588,7 @@
     <row r="34" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D34" s="15"/>
       <c r="E34" s="10"/>
@@ -1628,7 +1628,8 @@
       <c r="D38" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="hWz54iSkK3nhEaO+BiIV3KbUmedrGiR4zT/7eV8qGR085HILQI8Y9RkNXNq2QNzSHeFRinGKDu2UP6UkYvaaZg==" saltValue="CI6ROPv5Lo2uIP+Zk63PFQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="d1E40ZD8+WxMv5OSYHW5l0LF1OgYclIr8ghBdz+Bx0MpjVsJlEYaNIOxk7i6NBD/vAfrUqyQF4PAjwaxXAQyGw==" saltValue="RFWl3yJa9RFJAngXfRPW/w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <dataConsolidate/>
   <mergeCells count="5">
     <mergeCell ref="C36:G36"/>
     <mergeCell ref="F24:G24"/>
@@ -1637,13 +1638,13 @@
     <mergeCell ref="B2:H3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29 F18 C25 C27:C30 F25:F27 C19:C20 F19" xr:uid="{68EE6D14-2A8A-43F7-91CB-E68AD677398A}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F29 C25 C27:C30 F25:F27 F18:F19 C19:C20" xr:uid="{68EE6D14-2A8A-43F7-91CB-E68AD677398A}">
       <formula1>"&lt;0&gt;0"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C19" r:id="rId1" location="entities" xr:uid="{F1D811EA-5FE5-4CDE-ACBC-6C1307C55A81}"/>
-    <hyperlink ref="C20" r:id="rId2" location="countries" xr:uid="{6EA88155-3516-41F0-8948-1ABD8397C716}"/>
+    <hyperlink ref="C20" r:id="rId2" location="countries" display="Flag country" xr:uid="{6EA88155-3516-41F0-8948-1ABD8397C716}"/>
     <hyperlink ref="C25" r:id="rId3" location="types" xr:uid="{622B0C49-8893-494A-9BCD-E4B332B3D3A5}"/>
     <hyperlink ref="C28" r:id="rId4" location="processingsCE" xr:uid="{B5020CB7-2D60-4DAF-BC95-0497980829AA}"/>
     <hyperlink ref="C27" r:id="rId5" location="sourcesCE" xr:uid="{1A836EF2-15CA-4640-90B8-B74BF168D813}"/>
@@ -1694,7 +1695,7 @@
     </row>
     <row r="2" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="69"/>
@@ -1912,17 +1913,17 @@
     </row>
     <row r="4" spans="2:107" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="77" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="78"/>
       <c r="D4" s="79"/>
       <c r="E4" s="74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="75"/>
       <c r="G4" s="76"/>
       <c r="H4" s="80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="81"/>
       <c r="J4" s="81"/>
@@ -2026,22 +2027,22 @@
     </row>
     <row r="5" spans="2:107" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="53" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="46"/>
       <c r="I5" s="24"/>
